--- a/SearchingCard_1.xlsx
+++ b/SearchingCard_1.xlsx
@@ -55,25 +55,7 @@
     <t xml:space="preserve">bbpress</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.0</t>
-    </r>
+    <t xml:space="preserve">2.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">mylittleadmin</t>
@@ -104,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -134,12 +116,6 @@
       <name val="Courier New"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
